--- a/api/mo-datakrav.xlsx
+++ b/api/mo-datakrav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tollno-my.sharepoint.com/personal/vestein_vada_toll_no/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tollno-my.sharepoint.com/personal/lars_reed_toll_no/Documents/utv/toll.github.io/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B02BD4A-CB91-447B-914E-18BAA3B03E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3B02BD4A-CB91-447B-914E-18BAA3B03E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F2ECDB-77A6-4C9B-BC5A-E9999C3F7C22}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16657" yWindow="1132" windowWidth="21601" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createTransport" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="262">
   <si>
     <t>Description</t>
   </si>
@@ -1330,9 +1330,11 @@
   </sheetPr>
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="2.5703125" style="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="1" customWidth="1"/>
@@ -1458,6 +1460,9 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -2545,9 +2550,11 @@
   </sheetPr>
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="2.5703125" style="1" customWidth="1"/>
     <col min="6" max="11" width="9.140625" style="1" customWidth="1"/>
@@ -2675,6 +2682,9 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25.5" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -4346,9 +4356,11 @@
   </sheetPr>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="2.5703125" style="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="1" customWidth="1"/>
